--- a/mbs-perturbation/nano/welm/smote/nano_welm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/nano/welm/smote/nano_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6370023419203747</v>
+        <v>0.7448453608247423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2688679245283019</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4237918215613383</v>
+        <v>0.7387862796833773</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7654014918824047</v>
+        <v>0.8097340425531915</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6440281030444965</v>
+        <v>0.6770025839793282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3412322274881517</v>
+        <v>0.345945945945946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5059288537549407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7013011233982799</v>
+        <v>0.8038533583088039</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7769953051643192</v>
+        <v>0.6925064599483204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5463414634146342</v>
+        <v>0.7593582887700535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7021943573667712</v>
+        <v>0.7047146401985113</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8784240150093808</v>
+        <v>0.7620320855614974</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7136150234741784</v>
+        <v>0.5943152454780362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4904761904761905</v>
+        <v>0.2030456852791878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6280487804878049</v>
+        <v>0.3375527426160337</v>
       </c>
       <c r="E5" t="n">
-        <v>0.758531746031746</v>
+        <v>0.5180870959123697</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.5788113695090439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2274881516587678</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.3706563706563707</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6538853446748183</v>
+        <v>0.5283283067643257</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6810887181009555</v>
+        <v>0.6574962039478942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3960502278481223</v>
+        <v>0.456103784543557</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5468055878817788</v>
+        <v>0.5315277773818468</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7515087441993259</v>
+        <v>0.6844069778200377</v>
       </c>
     </row>
   </sheetData>
